--- a/xlsx/艾尔弗雷德·斯隆_intext.xlsx
+++ b/xlsx/艾尔弗雷德·斯隆_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>艾尔弗雷德·斯隆</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>通用汽車公司</t>
+    <t>通用汽车公司</t>
   </si>
   <si>
     <t>政策_政策_管理_艾尔弗雷德·斯隆</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delta_Upsilon</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E7%8F%A0%E8%BB%B8%E6%89%BF</t>
   </si>
   <si>
-    <t>滾珠軸承</t>
+    <t>滚珠轴承</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福特汽車公司</t>
+    <t>福特汽车公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87%E5%A0%B1%E9%85%AC%E7%8E%87</t>
   </si>
   <si>
-    <t>投資報酬率</t>
+    <t>投资报酬率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>會計</t>
+    <t>会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%82%A6</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>市場</t>
+    <t>市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>雪佛蘭</t>
+    <t>雪佛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E8%92%82%E5%85%8B</t>
   </si>
   <si>
-    <t>龐蒂克</t>
+    <t>庞蒂克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>別克</t>
+    <t>别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E8%BF%AA%E6%8B%89%E5%85%8B</t>
@@ -137,31 +137,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E9%81%8B%E8%BC%B8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大眾運輸系統</t>
+    <t>大众运输系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>有軌電車</t>
+    <t>有轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>公車</t>
+    <t>公车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E4%B8%96%E9%80%9A</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E8%B2%A8%E8%BB%8A</t>
   </si>
   <si>
-    <t>麥克貨車</t>
+    <t>麦克货车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A%E9%9B%BB%E8%BB%8A%E9%99%B0%E8%AC%80</t>
   </si>
   <si>
-    <t>通用汽車電車陰謀</t>
+    <t>通用汽车电车阴谋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E7%A6%8F%E7%89%B9</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E6%96%AF%E9%9A%86%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工斯隆管理學院</t>
+    <t>麻省理工斯隆管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史丹福商學院</t>
+    <t>史丹福商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E4%B8%AD%E5%BF%83</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E9%9B%BB%E5%99%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>奇異電器大樓</t>
+    <t>奇异电器大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%9B%8A%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>精益生產</t>
+    <t>精益生产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0</t>
   </si>
   <si>
-    <t>豐田</t>
+    <t>丰田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%89%98%E6%8B%89%E6%96%AF</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%C2%B7%E6%96%AF%E9%9A%86%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>艾爾弗·斯隆基金</t>
+    <t>艾尔弗·斯隆基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84</t>
@@ -257,19 +257,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -287,13 +284,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F</t>
   </si>
   <si>
-    <t>華納兄弟</t>
+    <t>华纳兄弟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yankee_Dood_It</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1917,7 +1914,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -1943,10 +1940,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1972,10 +1969,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2001,10 +1998,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2030,10 +2027,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2059,10 +2056,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2088,10 +2085,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2117,10 +2114,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2146,10 +2143,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2175,10 +2172,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2204,10 +2201,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2233,10 +2230,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2262,10 +2259,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2291,10 +2288,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2320,10 +2317,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2349,10 +2346,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2378,10 +2375,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2407,10 +2404,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2436,10 +2433,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2465,10 +2462,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2494,10 +2491,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -2523,10 +2520,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
